--- a/zjh_robot/robot/config_mgzjh_robot.xlsx
+++ b/zjh_robot/robot/config_mgzjh_robot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="178">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,87 +572,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12345678901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678902</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678903</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678904</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678905</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678906</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678908</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678907</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678909</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678911</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678910</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678912</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678914</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678915</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678916</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678917</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678918</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678919</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678920</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,7 +946,7 @@
   <dimension ref="A1:O202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E3" sqref="E3:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1061,7 +981,7 @@
         <v>109</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -1107,8 +1027,9 @@
       <c r="D3" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>177</v>
+      <c r="E3" t="str">
+        <f>TEXT(12345678900+A3, "0")</f>
+        <v>12345678901</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1154,8 +1075,9 @@
       <c r="D4" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>179</v>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E22" si="0">TEXT(12345678900+A4, "0")</f>
+        <v>12345678902</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1201,8 +1123,9 @@
       <c r="D5" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>180</v>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678903</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1248,8 +1171,9 @@
       <c r="D6" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>181</v>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678904</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1295,8 +1219,9 @@
       <c r="D7" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>182</v>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678905</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1342,8 +1267,9 @@
       <c r="D8" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>183</v>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678906</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1389,8 +1315,9 @@
       <c r="D9" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>185</v>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678907</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -1436,8 +1363,9 @@
       <c r="D10" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>184</v>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678908</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -1483,8 +1411,9 @@
       <c r="D11" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>186</v>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678909</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -1530,8 +1459,9 @@
       <c r="D12" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>188</v>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678910</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1577,8 +1507,9 @@
       <c r="D13" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>187</v>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678911</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -1624,8 +1555,9 @@
       <c r="D14" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>189</v>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678912</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -1671,8 +1603,9 @@
       <c r="D15" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>190</v>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678913</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -1718,8 +1651,9 @@
       <c r="D16" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>191</v>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678914</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -1765,8 +1699,9 @@
       <c r="D17" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>192</v>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678915</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -1812,8 +1747,9 @@
       <c r="D18" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>193</v>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678916</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -1859,8 +1795,9 @@
       <c r="D19" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>194</v>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678917</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -1906,8 +1843,9 @@
       <c r="D20" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>195</v>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678918</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -1953,8 +1891,9 @@
       <c r="D21" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>196</v>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678919</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -2000,8 +1939,9 @@
       <c r="D22" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>197</v>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>12345678920</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>

--- a/zjh_robot/robot/config_mgzjh_robot.xlsx
+++ b/zjh_robot/robot/config_mgzjh_robot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="198">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,7 +572,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>12345678901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678902</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678916</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678917</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678920</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -946,7 +1026,7 @@
   <dimension ref="A1:O202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -981,7 +1061,7 @@
         <v>109</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -1027,9 +1107,8 @@
       <c r="D3" t="s">
         <v>110</v>
       </c>
-      <c r="E3" t="str">
-        <f>TEXT(12345678900+A3, "0")</f>
-        <v>12345678901</v>
+      <c r="E3" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1075,9 +1154,8 @@
       <c r="D4" t="s">
         <v>111</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" ref="E4:E22" si="0">TEXT(12345678900+A4, "0")</f>
-        <v>12345678902</v>
+      <c r="E4" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1123,9 +1201,8 @@
       <c r="D5" t="s">
         <v>112</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678903</v>
+      <c r="E5" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1171,9 +1248,8 @@
       <c r="D6" t="s">
         <v>113</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678904</v>
+      <c r="E6" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1219,9 +1295,8 @@
       <c r="D7" t="s">
         <v>114</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678905</v>
+      <c r="E7" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1267,9 +1342,8 @@
       <c r="D8" t="s">
         <v>115</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678906</v>
+      <c r="E8" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1315,9 +1389,8 @@
       <c r="D9" t="s">
         <v>116</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678907</v>
+      <c r="E9" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -1363,9 +1436,8 @@
       <c r="D10" t="s">
         <v>117</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678908</v>
+      <c r="E10" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -1411,9 +1483,8 @@
       <c r="D11" t="s">
         <v>118</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678909</v>
+      <c r="E11" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -1459,9 +1530,8 @@
       <c r="D12" t="s">
         <v>119</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678910</v>
+      <c r="E12" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1507,9 +1577,8 @@
       <c r="D13" t="s">
         <v>120</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678911</v>
+      <c r="E13" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -1555,9 +1624,8 @@
       <c r="D14" t="s">
         <v>121</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678912</v>
+      <c r="E14" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -1603,9 +1671,8 @@
       <c r="D15" t="s">
         <v>122</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678913</v>
+      <c r="E15" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -1651,9 +1718,8 @@
       <c r="D16" t="s">
         <v>123</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678914</v>
+      <c r="E16" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -1699,9 +1765,8 @@
       <c r="D17" t="s">
         <v>124</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678915</v>
+      <c r="E17" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -1747,9 +1812,8 @@
       <c r="D18" t="s">
         <v>125</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678916</v>
+      <c r="E18" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -1795,9 +1859,8 @@
       <c r="D19" t="s">
         <v>126</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678917</v>
+      <c r="E19" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -1843,9 +1906,8 @@
       <c r="D20" t="s">
         <v>127</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678918</v>
+      <c r="E20" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -1891,9 +1953,8 @@
       <c r="D21" t="s">
         <v>128</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678919</v>
+      <c r="E21" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -1939,9 +2000,8 @@
       <c r="D22" t="s">
         <v>129</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>12345678920</v>
+      <c r="E22" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
